--- a/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4867BC3-3B32-479D-B364-D1E22BF08DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104EEEAA-D4FE-4CB8-8776-96DCB909D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{078BC489-DB0F-4E36-A1BE-3DC5EA29CAAC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC3E803C-101B-4CE2-94B2-F935243307A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="65">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -142,40 +142,43 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>65,38%</t>
+    <t>58,55%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,14%</t>
+    <t>45,54%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,28%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -641,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2122E690-A633-4D69-9CCB-FD35C9663D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE378E7F-0704-4ED8-AD89-6545D283A2FF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2138,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2156,13 @@
         <v>1883</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2183,13 +2186,13 @@
         <v>1883</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2248,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5B801-B952-4B6F-B119-A8BAF76BFD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10277F-C3CD-4629-A519-C9546695EF9B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3631,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3661,7 +3664,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3712,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3733,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>21</v>
@@ -3760,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>21</v>
@@ -3784,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3814,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3873,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3891,7 +3894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10201DFC-E03F-49AE-953A-D18DD925A5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341D54E-E667-4603-876F-30D127618A3C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3908,7 +3911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4736,7 +4739,7 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
@@ -4764,7 +4767,7 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>16</v>
@@ -4834,7 +4837,7 @@
         <v>869</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
@@ -4862,7 +4865,7 @@
         <v>869</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>16</v>
@@ -5230,7 +5233,7 @@
         <v>1054</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
@@ -5260,13 +5263,13 @@
         <v>2981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5290,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5317,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,7 +5335,7 @@
         <v>2731</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
@@ -5362,13 +5365,13 @@
         <v>2731</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5392,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5419,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5478,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104EEEAA-D4FE-4CB8-8776-96DCB909D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881428C-3010-4610-8735-3E008860973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC3E803C-101B-4CE2-94B2-F935243307A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA7F0AC2-731B-4120-A2F4-D646FD35CBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -85,7 +85,7 @@
     <t>El médico, por mi edad</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -106,7 +106,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -121,7 +121,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>50,79%</t>
@@ -142,43 +142,43 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>66,09%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,54%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>72,59%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -199,7 +199,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>54,82%</t>
@@ -214,7 +214,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>15,92%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -232,7 +232,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,0%</t>
+    <t>84,08%</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE378E7F-0704-4ED8-AD89-6545D283A2FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05995959-1C68-4208-93F0-0A8B743864AC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10277F-C3CD-4629-A519-C9546695EF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4AE34-4671-468D-890C-ECD103E42642}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3894,7 +3894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341D54E-E667-4603-876F-30D127618A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3906093D-2F02-447C-9068-3A64C990D2AB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881428C-3010-4610-8735-3E008860973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19FBD67-D6AA-4CF0-9745-2A6165F11BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA7F0AC2-731B-4120-A2F4-D646FD35CBA5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A45EA8C-91C5-436A-8740-DBA627662E70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="64">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -142,43 +142,40 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>46,14%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>72,79%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -214,7 +211,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -232,7 +229,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,08%</t>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05995959-1C68-4208-93F0-0A8B743864AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E81646-29D9-4EC6-87C5-E21C6D012815}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2141,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2153,13 @@
         <v>1883</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2186,13 +2183,13 @@
         <v>1883</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2245,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4AE34-4671-468D-890C-ECD103E42642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94AA8A6-1BDB-464B-BB33-06F6EEFAD5B5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2286,7 +2283,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3634,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3664,7 +3661,7 @@
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3715,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3730,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>21</v>
@@ -3763,7 +3760,7 @@
         <v>19</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>21</v>
@@ -3787,7 +3784,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3817,7 +3814,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3870,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3906093D-2F02-447C-9068-3A64C990D2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08826096-7CC1-49FB-906C-3E8A1C815039}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3911,7 +3908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4739,7 +4736,7 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
@@ -4767,7 +4764,7 @@
         <v>1054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>16</v>
@@ -4837,7 +4834,7 @@
         <v>869</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
@@ -4865,7 +4862,7 @@
         <v>869</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>16</v>
@@ -5233,7 +5230,7 @@
         <v>1054</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
@@ -5263,13 +5260,13 @@
         <v>2981</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,7 +5287,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5320,7 +5317,7 @@
         <v>17</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5332,7 @@
         <v>2731</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>16</v>
@@ -5365,13 +5362,13 @@
         <v>2731</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5389,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5422,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5475,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19FBD67-D6AA-4CF0-9745-2A6165F11BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A0CF58-E9CC-49F5-87C5-0E869B5A7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A45EA8C-91C5-436A-8740-DBA627662E70}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{60DFBB77-210E-4035-8550-721A3762D193}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="63">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -67,12 +67,21 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
@@ -85,18 +94,6 @@
     <t>El médico, por mi edad</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -121,7 +118,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>50,79%</t>
@@ -641,8 +638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E81646-29D9-4EC6-87C5-E21C6D012815}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914C53C4-9835-4762-A78C-0B2292F9AD60}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -761,176 +758,192 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>969</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>969</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -939,48 +952,52 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>969</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>969</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -992,26 +1009,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1020,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1041,26 +1060,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1069,111 +1090,115 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1083</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>3089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>969</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,52 +1207,54 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>969</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>1083</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>969</v>
+        <v>3089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1239,28 +1266,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1269,166 +1294,160 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>944</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>3089</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>914</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,51 +1459,49 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>2006</v>
+        <v>1858</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>3089</v>
+        <v>1858</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1496,26 +1513,28 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1524,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>23</v>
@@ -1536,148 +1555,154 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1647</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>982</v>
+      </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>2629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
       <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1714,51 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1858</v>
+        <v>1647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>982</v>
+      </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1858</v>
+        <v>2629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1743,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1758,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1773,34 +1800,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1809,100 +1836,100 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3653</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>1647</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
       <c r="I26" s="7">
-        <v>982</v>
+        <v>2064</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>2629</v>
+        <v>5718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -1911,28 +1938,28 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,319 +1968,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6480</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
-        <v>1647</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
       <c r="I28" s="7">
-        <v>982</v>
+        <v>2064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N28" s="7">
-        <v>2629</v>
+        <v>8545</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>944</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>944</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3653</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2064</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="7">
-        <v>6</v>
-      </c>
-      <c r="N31" s="7">
-        <v>5718</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1883</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1883</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>7</v>
-      </c>
-      <c r="D33" s="7">
-        <v>6480</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2064</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="7">
-        <v>9</v>
-      </c>
-      <c r="N33" s="7">
-        <v>8545</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2266,8 +2035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94AA8A6-1BDB-464B-BB33-06F6EEFAD5B5}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A096C-15F6-456E-93EB-5EA9E785A88C}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2283,7 +2052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2386,176 +2155,192 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>953</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>953</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,48 +2349,52 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>953</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>953</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2617,26 +2406,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2645,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2666,26 +2457,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2694,68 +2487,70 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>953</v>
+        <v>1075</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1087</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>953</v>
+        <v>2162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2764,26 +2559,28 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2792,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,49 +2607,51 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>953</v>
+        <v>1075</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1087</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>953</v>
+        <v>2162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2864,28 +2663,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2894,19 +2691,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2915,28 +2712,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2945,70 +2740,68 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1075</v>
+        <v>2026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>2162</v>
+        <v>2026</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3017,28 +2810,26 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3047,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,54 +2853,52 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1075</v>
+        <v>2026</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>2162</v>
+        <v>2026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3121,26 +2910,28 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3149,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>23</v>
@@ -3161,7 +2952,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3170,26 +2961,28 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3198,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -3210,56 +3003,58 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1770</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2026</v>
+        <v>3805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3268,26 +3063,28 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
       <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3296,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -3314,49 +3111,51 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>2026</v>
+        <v>2036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1770</v>
+      </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>2026</v>
+        <v>3805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3368,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3383,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3398,19 +3197,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -3419,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3434,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3449,70 +3248,70 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6090</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>2036</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
       <c r="I26" s="7">
-        <v>1770</v>
+        <v>2857</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>3805</v>
+        <v>8947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -3521,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3536,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3551,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,319 +3365,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6090</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
-        <v>2036</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
       <c r="I28" s="7">
-        <v>1770</v>
+        <v>2857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N28" s="7">
-        <v>3805</v>
+        <v>8947</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7">
-        <v>6090</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2857</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="7">
-        <v>8</v>
-      </c>
-      <c r="N31" s="7">
-        <v>8947</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7">
-        <v>6090</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2857</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8</v>
-      </c>
-      <c r="N33" s="7">
-        <v>8947</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
+      <c r="A29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3891,8 +3432,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08826096-7CC1-49FB-906C-3E8A1C815039}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D758FA-6349-489B-8458-C6BC1D0A785F}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3908,7 +3449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4013,174 +3554,190 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1927</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1927</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,44 +3750,48 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1927</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1927</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4238,79 +3799,79 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4319,96 +3880,96 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>960</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4417,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,67 +3993,67 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>960</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1927</v>
+        <v>960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -4502,25 +4063,25 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -4529,7 +4090,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -4538,26 +4099,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4566,68 +4127,68 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>960</v>
+        <v>869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>960</v>
+        <v>869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4636,26 +4197,26 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4664,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,104 +4240,104 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>960</v>
+        <v>1923</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>960</v>
+        <v>1923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4785,26 +4346,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4813,68 +4374,68 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4883,26 +4444,26 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4911,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,104 +4487,106 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1923</v>
+        <v>901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>1923</v>
+        <v>901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1927</v>
+      </c>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5032,26 +4595,28 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
       <c r="J25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5060,68 +4625,70 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>901</v>
+        <v>2731</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
       <c r="J26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>901</v>
+        <v>2731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5130,26 +4697,28 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
       <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5158,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,317 +4742,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>901</v>
+        <v>3785</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1927</v>
+      </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>901</v>
+        <v>5712</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1054</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1927</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2981</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2731</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2731</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3785</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1927</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6</v>
-      </c>
-      <c r="N33" s="7">
-        <v>5712</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
+      <c r="A29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
